--- a/results/comparaison/GM/azimuth/median_normalized.xlsx
+++ b/results/comparaison/GM/azimuth/median_normalized.xlsx
@@ -983,412 +983,526 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>2.538747515466155</v>
+      </c>
+      <c r="D3">
+        <v>1.424526671601251</v>
+      </c>
+      <c r="E3">
         <v>1.196023727398928</v>
       </c>
-      <c r="C3">
+      <c r="H3">
+        <v>1.809884834361141</v>
+      </c>
+      <c r="I3">
+        <v>1.281806218116102</v>
+      </c>
+      <c r="J3">
         <v>0.5661082954304794</v>
       </c>
-      <c r="D3">
-        <v>1.147152969098991</v>
-      </c>
-      <c r="E3">
-        <v>1.779479086042223</v>
-      </c>
-      <c r="F3">
+      <c r="K3">
         <v>1.637892707685416</v>
       </c>
-      <c r="G3">
-        <v>1.304872635694389</v>
-      </c>
-      <c r="H3">
+      <c r="L3">
+        <v>2.983711589771762</v>
+      </c>
+      <c r="M3">
+        <v>1.627087995439863</v>
+      </c>
+      <c r="N3">
         <v>0.9939796557827506</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>0.9714513280356885</v>
       </c>
-      <c r="L3">
-        <v>1.343162994863743</v>
-      </c>
-      <c r="N3">
-        <v>0.9512363029895867</v>
-      </c>
       <c r="P3">
-        <v>1.807561089643781</v>
-      </c>
-      <c r="R3">
-        <v>1.671921742051756</v>
-      </c>
-      <c r="S3">
-        <v>1.291255529358041</v>
+        <v>2.670372861445113</v>
+      </c>
+      <c r="Q3">
+        <v>0.9599437256652475</v>
       </c>
       <c r="T3">
-        <v>2.215235060850234</v>
+        <v>0.941896215980759</v>
+      </c>
+      <c r="U3">
+        <v>0.9322571199603223</v>
       </c>
       <c r="V3">
-        <v>1.436008706156751</v>
-      </c>
-      <c r="X3">
-        <v>1.809884834361141</v>
+        <v>1.378147605870674</v>
+      </c>
+      <c r="W3">
+        <v>1.005758205715483</v>
       </c>
       <c r="Y3">
-        <v>1.636969512951457</v>
+        <v>1.592707236868858</v>
       </c>
       <c r="Z3">
-        <v>1.281806218116102</v>
-      </c>
-      <c r="AB3">
-        <v>1.616428452453133</v>
+        <v>1.596575098116251</v>
+      </c>
+      <c r="AA3">
+        <v>0.4496437814169457</v>
       </c>
       <c r="AC3">
-        <v>0.9494151698849724</v>
+        <v>0.8989577657491743</v>
       </c>
       <c r="AD3">
-        <v>1.271750381623737</v>
-      </c>
-      <c r="AE3">
-        <v>0.8867889716050638</v>
+        <v>1.023777698176007</v>
       </c>
       <c r="AF3">
-        <v>1.361711576917409</v>
+        <v>0.9269933914943328</v>
       </c>
       <c r="AG3">
-        <v>0.9761108371532324</v>
-      </c>
-      <c r="AH3">
-        <v>1.0396358694893</v>
+        <v>0.5860350409424468</v>
       </c>
       <c r="AI3">
-        <v>1.530183928076857</v>
+        <v>1.471826125095988</v>
       </c>
       <c r="AJ3">
-        <v>0.9480002065287753</v>
+        <v>1.281703511021563</v>
+      </c>
+      <c r="AK3">
+        <v>0.9526821110322087</v>
       </c>
       <c r="AL3">
-        <v>1.220492123764224</v>
+        <v>1.019062836287021</v>
+      </c>
+      <c r="AM3">
+        <v>1.350629497500427</v>
       </c>
       <c r="AN3">
-        <v>0.983962501921206</v>
+        <v>0.9976403459519415</v>
       </c>
       <c r="AO3">
-        <v>1.420825904536054</v>
+        <v>1.03028036216457</v>
       </c>
       <c r="AP3">
-        <v>1.243057139521518</v>
+        <v>0.9276008989036976</v>
       </c>
       <c r="AQ3">
-        <v>1.050392017385082</v>
+        <v>1.590065577615842</v>
       </c>
       <c r="AR3">
-        <v>1.060300140037968</v>
+        <v>1.505263831124292</v>
       </c>
       <c r="AT3">
-        <v>0.1960205188187941</v>
+        <v>1.03106928781137</v>
+      </c>
+      <c r="AU3">
+        <v>4.733418225400827</v>
       </c>
       <c r="AV3">
-        <v>1.35332582070274</v>
+        <v>1.620708589901691</v>
       </c>
       <c r="AW3">
-        <v>0.9735065716120319</v>
+        <v>0.9569660919665702</v>
       </c>
       <c r="AX3">
-        <v>1.331337607989843</v>
+        <v>2.109890121639057</v>
       </c>
       <c r="AY3">
-        <v>2.689324688383365</v>
-      </c>
-      <c r="AZ3">
-        <v>0.8893226633101703</v>
+        <v>0.7900725743960599</v>
       </c>
       <c r="BA3">
-        <v>0.8604704426515769</v>
+        <v>0.296587140291123</v>
       </c>
       <c r="BB3">
-        <v>0.9865712670143333</v>
+        <v>1.908793249848355</v>
       </c>
       <c r="BC3">
-        <v>0.8039334057919192</v>
+        <v>0.8532671478497462</v>
       </c>
       <c r="BD3">
-        <v>0.931220338516035</v>
+        <v>1.198171508093574</v>
       </c>
       <c r="BE3">
-        <v>1.103472703594968</v>
+        <v>0.8424930851762752</v>
       </c>
       <c r="BF3">
-        <v>0.9771675336578933</v>
-      </c>
-      <c r="BG3">
-        <v>1.059384111335876</v>
+        <v>1.656688062013947</v>
       </c>
       <c r="BH3">
-        <v>1.055229459042365</v>
+        <v>0.9698001990909023</v>
       </c>
       <c r="BI3">
-        <v>1.669699025043199</v>
+        <v>0.6770476560688984</v>
       </c>
       <c r="BJ3">
-        <v>1.02194893144228</v>
+        <v>0.7464208102305784</v>
+      </c>
+      <c r="BK3">
+        <v>0.996675155103493</v>
       </c>
       <c r="BL3">
-        <v>1.042245632156213</v>
-      </c>
-      <c r="BM3">
-        <v>0.9968774241187168</v>
+        <v>1.126121392634938</v>
+      </c>
+      <c r="BN3">
+        <v>1.099375243450892</v>
+      </c>
+      <c r="BO3">
+        <v>1.247165608116272</v>
+      </c>
+      <c r="BP3">
+        <v>0.9311445043472946</v>
       </c>
       <c r="BQ3">
-        <v>2.016081444126117</v>
+        <v>0.696609311571162</v>
       </c>
       <c r="BR3">
-        <v>2.064263350829829</v>
+        <v>0.8618715849544311</v>
       </c>
       <c r="BS3">
-        <v>7.193069720752398</v>
+        <v>1.048061451033869</v>
       </c>
       <c r="BT3">
-        <v>0.7136819882400656</v>
+        <v>1.113901158770714</v>
       </c>
       <c r="BU3">
-        <v>1.303844074696707</v>
+        <v>0.364697287045497</v>
       </c>
       <c r="BV3">
-        <v>1.506272258191557</v>
+        <v>1.293754056364134</v>
       </c>
       <c r="BW3">
-        <v>1.23216475141376</v>
+        <v>0.9850281062140145</v>
       </c>
       <c r="BX3">
-        <v>0.4186309727464049</v>
-      </c>
-      <c r="CA3">
-        <v>1.864912589663888</v>
+        <v>1.743415614265263</v>
+      </c>
+      <c r="BY3">
+        <v>2.069720118438884</v>
+      </c>
+      <c r="BZ3">
+        <v>0.9335522798162333</v>
       </c>
       <c r="CB3">
-        <v>1.339531061489564</v>
+        <v>1.288820992688387</v>
+      </c>
+      <c r="CC3">
+        <v>1.428410258629794</v>
       </c>
       <c r="CD3">
-        <v>1.003727307208182</v>
+        <v>1.930854286958108</v>
       </c>
       <c r="CE3">
-        <v>0.9053007034993895</v>
+        <v>1.279792827248464</v>
       </c>
       <c r="CF3">
-        <v>1.239428521358457</v>
+        <v>12.56268219138582</v>
+      </c>
+      <c r="CG3">
+        <v>1.584037930821661</v>
       </c>
       <c r="CH3">
-        <v>1.756173709744234</v>
+        <v>1.106717704858737</v>
+      </c>
+      <c r="CI3">
+        <v>1.036124860177668</v>
       </c>
       <c r="CK3">
-        <v>1.272044132944631</v>
+        <v>1.223370091034591</v>
+      </c>
+      <c r="CL3">
+        <v>1.60019524545471</v>
       </c>
       <c r="CM3">
-        <v>1.058637460009969</v>
+        <v>1.030932075316474</v>
       </c>
       <c r="CN3">
-        <v>1.127218328906562</v>
+        <v>0.7612268137045149</v>
+      </c>
+      <c r="CO3">
+        <v>0.9793571717676146</v>
       </c>
       <c r="CP3">
-        <v>0.9331770768318038</v>
+        <v>0.8987274745311439</v>
+      </c>
+      <c r="CQ3">
+        <v>0.8894003905855777</v>
+      </c>
+      <c r="CR3">
+        <v>1.488534368307507</v>
       </c>
       <c r="CS3">
-        <v>1.510606211889037</v>
+        <v>1.362190714094135</v>
+      </c>
+      <c r="CT3">
+        <v>1.229544418502157</v>
+      </c>
+      <c r="CU3">
+        <v>2.305511311286529</v>
+      </c>
+      <c r="CV3">
+        <v>1.010356231443054</v>
+      </c>
+      <c r="CW3">
+        <v>1.010409420619501</v>
       </c>
     </row>
     <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.166892494818161</v>
+      </c>
       <c r="C4">
+        <v>2.484419935884522</v>
+      </c>
+      <c r="D4">
+        <v>1.640884940875119</v>
+      </c>
+      <c r="E4">
+        <v>1.138503193833974</v>
+      </c>
+      <c r="H4">
+        <v>1.799782878092848</v>
+      </c>
+      <c r="I4">
+        <v>1.183851451739365</v>
+      </c>
+      <c r="J4">
         <v>0.6107779031301143</v>
       </c>
-      <c r="D4">
-        <v>1.159365294605021</v>
-      </c>
-      <c r="E4">
-        <v>1.634660210721933</v>
-      </c>
-      <c r="F4">
+      <c r="K4">
         <v>1.548593522787224</v>
       </c>
-      <c r="H4">
+      <c r="L4">
+        <v>2.874953843952846</v>
+      </c>
+      <c r="M4">
+        <v>1.513619364512195</v>
+      </c>
+      <c r="N4">
         <v>1.142564170522668</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>0.9608964283027872</v>
       </c>
-      <c r="L4">
-        <v>1.261356918120118</v>
-      </c>
-      <c r="N4">
-        <v>0.9832465500888062</v>
+      <c r="P4">
+        <v>2.515984190202605</v>
       </c>
       <c r="Q4">
-        <v>1.525630500333658</v>
-      </c>
-      <c r="R4">
-        <v>1.48932887340113</v>
-      </c>
-      <c r="S4">
-        <v>1.226775036436373</v>
+        <v>0.9858253253524253</v>
       </c>
       <c r="T4">
-        <v>2.076098549636154</v>
+        <v>0.9459513843490528</v>
+      </c>
+      <c r="U4">
+        <v>0.8348256002966449</v>
       </c>
       <c r="V4">
-        <v>1.731397108382873</v>
+        <v>1.335949215134065</v>
       </c>
       <c r="W4">
-        <v>1.177904432389802</v>
-      </c>
-      <c r="X4">
-        <v>1.799782878092848</v>
-      </c>
-      <c r="Y4">
-        <v>1.479356143112423</v>
+        <v>1.012545520756991</v>
+      </c>
+      <c r="Z4">
+        <v>1.473478436551717</v>
+      </c>
+      <c r="AA4">
+        <v>0.6042485731746591</v>
       </c>
       <c r="AC4">
-        <v>1.054207759276052</v>
-      </c>
-      <c r="AE4">
-        <v>0.9103324199923007</v>
+        <v>0.8191868192941757</v>
+      </c>
+      <c r="AD4">
+        <v>1.069201210340482</v>
       </c>
       <c r="AF4">
-        <v>1.877879139584359</v>
-      </c>
-      <c r="AH4">
-        <v>1.059769418335957</v>
+        <v>0.9435557475848698</v>
+      </c>
+      <c r="AG4">
+        <v>0.5376854657308084</v>
       </c>
       <c r="AI4">
-        <v>2.101957970275302</v>
+        <v>1.932253843406286</v>
       </c>
       <c r="AJ4">
-        <v>1.023074216889087</v>
+        <v>1.578115016916507</v>
+      </c>
+      <c r="AK4">
+        <v>1.187615339963225</v>
       </c>
       <c r="AL4">
-        <v>1.684005754351678</v>
+        <v>1.020772526619804</v>
+      </c>
+      <c r="AM4">
+        <v>1.634823002689605</v>
+      </c>
+      <c r="AN4">
+        <v>0.8563204350195875</v>
       </c>
       <c r="AO4">
-        <v>1.606455880920703</v>
+        <v>1.087051772256993</v>
       </c>
       <c r="AP4">
-        <v>1.272019416567603</v>
+        <v>0.9123208604220669</v>
       </c>
       <c r="AQ4">
-        <v>1.060309101984943</v>
+        <v>1.626597166862983</v>
       </c>
       <c r="AR4">
-        <v>0.9146399567200981</v>
-      </c>
-      <c r="AS4">
-        <v>1.048360123120843</v>
+        <v>1.4842144664041</v>
       </c>
       <c r="AT4">
-        <v>0.252351399381779</v>
+        <v>0.9939065161726451</v>
+      </c>
+      <c r="AU4">
+        <v>4.616325478572662</v>
       </c>
       <c r="AV4">
-        <v>1.340698597299369</v>
+        <v>3.080122637702186</v>
       </c>
       <c r="AW4">
-        <v>1.002830317031815</v>
+        <v>0.9916211279839505</v>
       </c>
       <c r="AX4">
-        <v>1.585382750454013</v>
+        <v>3.07565579850971</v>
+      </c>
+      <c r="AY4">
+        <v>0.8299508842355414</v>
       </c>
       <c r="AZ4">
-        <v>0.8390009072055681</v>
+        <v>1.144311837361936</v>
       </c>
       <c r="BA4">
-        <v>0.7353176395485684</v>
+        <v>0.3138220037097119</v>
       </c>
       <c r="BB4">
-        <v>0.9227985119228046</v>
+        <v>1.845085112015043</v>
       </c>
       <c r="BC4">
-        <v>0.9030782492331794</v>
+        <v>0.8184432739103099</v>
       </c>
       <c r="BD4">
-        <v>0.8913990690223299</v>
+        <v>1.734666037094103</v>
       </c>
       <c r="BE4">
-        <v>1.05973173685303</v>
+        <v>0.881156815689309</v>
       </c>
       <c r="BF4">
-        <v>0.9317939348621702</v>
-      </c>
-      <c r="BG4">
-        <v>0.986990930385234</v>
+        <v>1.463899922594572</v>
       </c>
       <c r="BH4">
-        <v>1.012265784663875</v>
+        <v>1.082346272842882</v>
       </c>
       <c r="BI4">
-        <v>1.471236735375278</v>
+        <v>0.7509050947780063</v>
       </c>
       <c r="BJ4">
-        <v>1.028090051215649</v>
+        <v>0.8533497406502668</v>
+      </c>
+      <c r="BK4">
+        <v>0.9182952660433522</v>
       </c>
       <c r="BL4">
-        <v>1.157691461475541</v>
+        <v>1.656695962694028</v>
       </c>
       <c r="BM4">
-        <v>1.126612924195842</v>
+        <v>0.8414956701345437</v>
       </c>
       <c r="BN4">
-        <v>1.544732121011144</v>
+        <v>1.112714746745475</v>
       </c>
       <c r="BO4">
-        <v>1.153834840791325</v>
+        <v>1.069027116732875</v>
+      </c>
+      <c r="BP4">
+        <v>0.8032485306892413</v>
+      </c>
+      <c r="BQ4">
+        <v>0.7486419537260181</v>
       </c>
       <c r="BR4">
-        <v>2.003032169218356</v>
+        <v>1.053162678210509</v>
       </c>
       <c r="BS4">
-        <v>6.800538381399597</v>
+        <v>1.76537898833989</v>
+      </c>
+      <c r="BT4">
+        <v>1.191638914158088</v>
       </c>
       <c r="BU4">
-        <v>1.7879362225824</v>
+        <v>0.8431722226081441</v>
+      </c>
+      <c r="BV4">
+        <v>1.334122300788554</v>
+      </c>
+      <c r="BW4">
+        <v>0.9848195321009893</v>
       </c>
       <c r="BX4">
-        <v>0.5762925665563601</v>
+        <v>1.883905400641079</v>
       </c>
       <c r="BY4">
-        <v>0.5509831033319362</v>
-      </c>
-      <c r="CA4">
-        <v>2.118383559628603</v>
+        <v>1.770933411314047</v>
+      </c>
+      <c r="BZ4">
+        <v>0.7536255574735886</v>
+      </c>
+      <c r="CB4">
+        <v>1.420458987455006</v>
+      </c>
+      <c r="CC4">
+        <v>1.171787021096302</v>
+      </c>
+      <c r="CD4">
+        <v>2.368503138870384</v>
       </c>
       <c r="CE4">
-        <v>0.9906316271277806</v>
+        <v>1.142502986421676</v>
       </c>
       <c r="CF4">
-        <v>1.199122423213844</v>
+        <v>11.48792702323503</v>
+      </c>
+      <c r="CG4">
+        <v>1.602626602516724</v>
       </c>
       <c r="CH4">
-        <v>2.329209404085128</v>
+        <v>0.9629185421501973</v>
       </c>
       <c r="CI4">
-        <v>0.8185658786609211</v>
+        <v>0.8801759564203168</v>
       </c>
       <c r="CK4">
-        <v>1.322983813965632</v>
+        <v>1.193271513105222</v>
       </c>
       <c r="CL4">
-        <v>0.6633429510051267</v>
+        <v>1.3797527917523</v>
       </c>
       <c r="CM4">
-        <v>1.040413967931814</v>
+        <v>1.094227612691291</v>
       </c>
       <c r="CN4">
-        <v>0.9808880983975189</v>
+        <v>0.6188544171402354</v>
+      </c>
+      <c r="CO4">
+        <v>0.8885520858006232</v>
       </c>
       <c r="CP4">
-        <v>0.8591309677543045</v>
+        <v>0.9037781805795444</v>
+      </c>
+      <c r="CQ4">
+        <v>0.8264826682548696</v>
+      </c>
+      <c r="CR4">
+        <v>1.286091007724112</v>
       </c>
       <c r="CS4">
-        <v>1.243218595958918</v>
+        <v>1.210336317701663</v>
+      </c>
+      <c r="CT4">
+        <v>1.125688726945748</v>
       </c>
       <c r="CU4">
-        <v>1.01393307826497</v>
+        <v>2.675910142789006</v>
+      </c>
+      <c r="CV4">
+        <v>1.000554538823732</v>
+      </c>
+      <c r="CW4">
+        <v>0.6529221846934816</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -1396,193 +1510,262 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>1.284498131467162</v>
+      </c>
+      <c r="C5">
+        <v>2.579341220727847</v>
+      </c>
+      <c r="D5">
+        <v>1.470285912634894</v>
+      </c>
+      <c r="E5">
         <v>1.33231747711199</v>
       </c>
-      <c r="C5">
+      <c r="H5">
+        <v>1.85201466951435</v>
+      </c>
+      <c r="I5">
+        <v>1.252258380392489</v>
+      </c>
+      <c r="J5">
         <v>0.8656913780210475</v>
       </c>
-      <c r="D5">
-        <v>1.199506130508444</v>
-      </c>
-      <c r="F5">
+      <c r="K5">
         <v>1.669484281729047</v>
       </c>
-      <c r="G5">
-        <v>1.324143913547708</v>
-      </c>
-      <c r="H5">
+      <c r="L5">
+        <v>3.053637271411211</v>
+      </c>
+      <c r="M5">
+        <v>1.614019854811428</v>
+      </c>
+      <c r="N5">
         <v>1.144182663155451</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>1.028038227913823</v>
       </c>
-      <c r="N5">
-        <v>0.9557433834674061</v>
-      </c>
-      <c r="O5">
+      <c r="P5">
+        <v>2.726713708649003</v>
+      </c>
+      <c r="Q5">
+        <v>0.9587049064654752</v>
+      </c>
+      <c r="R5">
         <v>1.259692357595098</v>
       </c>
-      <c r="S5">
-        <v>1.286515626250388</v>
-      </c>
-      <c r="T5">
-        <v>2.331306947135352</v>
+      <c r="U5">
+        <v>0.5048940925344715</v>
       </c>
       <c r="V5">
-        <v>1.50850671610711</v>
+        <v>1.461046436536209</v>
       </c>
       <c r="W5">
-        <v>1.262888920240679</v>
-      </c>
-      <c r="X5">
-        <v>1.85201466951435</v>
-      </c>
-      <c r="Y5">
-        <v>1.627476458146289</v>
+        <v>1.074803452394119</v>
       </c>
       <c r="Z5">
-        <v>1.252258380392489</v>
-      </c>
-      <c r="AB5">
-        <v>1.767121866760339</v>
+        <v>1.636932650992394</v>
+      </c>
+      <c r="AA5">
+        <v>0.3697665517114465</v>
       </c>
       <c r="AC5">
-        <v>1.165797239470612</v>
-      </c>
-      <c r="AD5">
-        <v>1.441362196073587</v>
-      </c>
-      <c r="AE5">
-        <v>0.9337263218378203</v>
-      </c>
-      <c r="AH5">
-        <v>1.13292366754746</v>
+        <v>0.9764928912799362</v>
+      </c>
+      <c r="AF5">
+        <v>0.9720159437926974</v>
+      </c>
+      <c r="AG5">
+        <v>0.7864781732896728</v>
       </c>
       <c r="AI5">
-        <v>1.451437696998737</v>
+        <v>1.424988399191511</v>
       </c>
       <c r="AJ5">
-        <v>1.041611983477766</v>
+        <v>1.302011749347537</v>
+      </c>
+      <c r="AK5">
+        <v>1.018950897045029</v>
       </c>
       <c r="AL5">
-        <v>0.6031124835764532</v>
-      </c>
-      <c r="AO5">
-        <v>1.496978522500581</v>
+        <v>1.065014340438982</v>
+      </c>
+      <c r="AM5">
+        <v>1.16552248776149</v>
+      </c>
+      <c r="AN5">
+        <v>0.9406803357519854</v>
       </c>
       <c r="AP5">
-        <v>1.309280576472876</v>
+        <v>0.9866742454533356</v>
       </c>
       <c r="AQ5">
-        <v>1.100996226566755</v>
+        <v>1.726992179685702</v>
       </c>
       <c r="AR5">
-        <v>1.011437914915252</v>
+        <v>1.609521043042905</v>
       </c>
       <c r="AT5">
-        <v>0.1597343031457856</v>
+        <v>1.033247449641366</v>
+      </c>
+      <c r="AU5">
+        <v>5.045698144353971</v>
       </c>
       <c r="AV5">
-        <v>1.398477013214702</v>
+        <v>1.406055334807849</v>
       </c>
       <c r="AW5">
-        <v>1.038322957927833</v>
+        <v>0.9304542151114492</v>
       </c>
       <c r="AX5">
-        <v>1.342107004786554</v>
+        <v>3.11238155720205</v>
       </c>
       <c r="AY5">
-        <v>2.805905814510075</v>
+        <v>0.8121515556078849</v>
       </c>
       <c r="AZ5">
-        <v>1.014541098772078</v>
+        <v>1.95431320587626</v>
       </c>
       <c r="BA5">
-        <v>0.7925439401326361</v>
+        <v>0.2905227799286182</v>
       </c>
       <c r="BB5">
-        <v>0.9560672393147643</v>
+        <v>1.953171070306201</v>
       </c>
       <c r="BC5">
-        <v>1.019440674154638</v>
+        <v>0.895313772563654</v>
       </c>
       <c r="BD5">
-        <v>1.077282026489948</v>
+        <v>1.014810906438681</v>
       </c>
       <c r="BE5">
-        <v>1.125851067211937</v>
+        <v>1.027938814749795</v>
       </c>
       <c r="BF5">
-        <v>0.9648178514465325</v>
+        <v>1.722720566144205</v>
+      </c>
+      <c r="BG5">
+        <v>1.944507805694266</v>
       </c>
       <c r="BH5">
-        <v>1.108366935048317</v>
+        <v>1.259814238062775</v>
       </c>
       <c r="BI5">
-        <v>1.708059473795545</v>
+        <v>0.9783083698335098</v>
       </c>
       <c r="BJ5">
-        <v>1.133235547806755</v>
+        <v>0.635437283158959</v>
+      </c>
+      <c r="BK5">
+        <v>0.9809229793563741</v>
       </c>
       <c r="BL5">
-        <v>1.094857683400908</v>
+        <v>0.8892263018226719</v>
+      </c>
+      <c r="BM5">
+        <v>0.9162751163271995</v>
+      </c>
+      <c r="BN5">
+        <v>1.16969740142762</v>
+      </c>
+      <c r="BO5">
+        <v>1.250337807276454</v>
       </c>
       <c r="BP5">
-        <v>1.106182575800488</v>
+        <v>1.034708080576787</v>
+      </c>
+      <c r="BQ5">
+        <v>0.8448406811963901</v>
       </c>
       <c r="BR5">
-        <v>2.941455952328666</v>
+        <v>1.025526990803032</v>
       </c>
       <c r="BS5">
-        <v>6.79906039365338</v>
+        <v>1.323654213429308</v>
+      </c>
+      <c r="BT5">
+        <v>1.146501187692549</v>
       </c>
       <c r="BU5">
-        <v>1.769373616930302</v>
+        <v>0.9230538470802957</v>
       </c>
       <c r="BV5">
-        <v>1.415421977256623</v>
+        <v>1.509288607287326</v>
+      </c>
+      <c r="BW5">
+        <v>1.053121159967766</v>
       </c>
       <c r="BX5">
-        <v>0.9111629752881362</v>
+        <v>1.815197560603847</v>
       </c>
       <c r="BY5">
-        <v>0.6451353639310061</v>
-      </c>
-      <c r="CA5">
-        <v>1.191628949905228</v>
+        <v>2.378206180887298</v>
+      </c>
+      <c r="BZ5">
+        <v>0.9872033591239744</v>
+      </c>
+      <c r="CB5">
+        <v>0.9140430823303821</v>
       </c>
       <c r="CC5">
-        <v>1.283269722706994</v>
+        <v>1.49653282407786</v>
       </c>
       <c r="CD5">
-        <v>1.000844573344696</v>
+        <v>7.654441464546652</v>
       </c>
       <c r="CE5">
-        <v>0.795236247189205</v>
+        <v>1.349192832072821</v>
+      </c>
+      <c r="CF5">
+        <v>13.25709157035671</v>
+      </c>
+      <c r="CG5">
+        <v>1.45439098767781</v>
       </c>
       <c r="CH5">
-        <v>1.802724567810776</v>
+        <v>1.191813643028644</v>
+      </c>
+      <c r="CI5">
+        <v>1.221805748028356</v>
       </c>
       <c r="CK5">
-        <v>1.015085879954505</v>
+        <v>1.216347812687395</v>
+      </c>
+      <c r="CL5">
+        <v>1.836349889046251</v>
       </c>
       <c r="CM5">
-        <v>1.085146373122396</v>
+        <v>2.151952280749367</v>
       </c>
       <c r="CN5">
-        <v>1.214956739295425</v>
+        <v>0.9869896456755204</v>
+      </c>
+      <c r="CO5">
+        <v>0.9758119938491723</v>
       </c>
       <c r="CP5">
-        <v>1.027951070143628</v>
+        <v>1.02515956236888</v>
+      </c>
+      <c r="CQ5">
+        <v>0.9127269391618495</v>
+      </c>
+      <c r="CR5">
+        <v>1.783086739612042</v>
       </c>
       <c r="CS5">
-        <v>1.904825560145544</v>
+        <v>1.725001182596214</v>
+      </c>
+      <c r="CT5">
+        <v>1.257876584022784</v>
       </c>
       <c r="CU5">
-        <v>1.103447005966871</v>
+        <v>2.199558175432207</v>
+      </c>
+      <c r="CV5">
+        <v>1.10305865118869</v>
       </c>
       <c r="CW5">
-        <v>1.33540617014845</v>
+        <v>0.9029326145096905</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -1590,408 +1773,552 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>1.341179539946652</v>
+      </c>
+      <c r="D6">
+        <v>0.9371280989731223</v>
+      </c>
+      <c r="E6">
         <v>1.341788283560349</v>
       </c>
-      <c r="C6">
+      <c r="F6">
+        <v>2.267789331588735</v>
+      </c>
+      <c r="H6">
+        <v>1.856915705958762</v>
+      </c>
+      <c r="I6">
+        <v>1.236927393724152</v>
+      </c>
+      <c r="J6">
         <v>0.5890578944029579</v>
       </c>
-      <c r="D6">
-        <v>0.9368090220906251</v>
-      </c>
-      <c r="F6">
+      <c r="K6">
         <v>1.597679616506632</v>
       </c>
-      <c r="G6">
-        <v>1.201273324128871</v>
-      </c>
-      <c r="H6">
+      <c r="L6">
+        <v>3.08211057088777</v>
+      </c>
+      <c r="M6">
+        <v>1.595587226054139</v>
+      </c>
+      <c r="N6">
         <v>0.9388411493273909</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>1.046757537275659</v>
       </c>
-      <c r="J6">
-        <v>2.131707775698139</v>
-      </c>
-      <c r="M6">
-        <v>2.267789331588735</v>
-      </c>
-      <c r="N6">
-        <v>0.7439532624717773</v>
+      <c r="P6">
+        <v>2.199117164293511</v>
       </c>
       <c r="Q6">
-        <v>1.571633181659521</v>
-      </c>
-      <c r="S6">
-        <v>1.244374924120003</v>
-      </c>
-      <c r="T6">
-        <v>1.167489154928353</v>
+        <v>0.7461126822957385</v>
+      </c>
+      <c r="V6">
+        <v>1.245286342420547</v>
       </c>
       <c r="W6">
-        <v>1.305469562098017</v>
-      </c>
-      <c r="X6">
-        <v>1.856915705958762</v>
+        <v>0.8239839856752629</v>
       </c>
       <c r="Y6">
-        <v>1.425587365466796</v>
+        <v>1.633480228634258</v>
+      </c>
+      <c r="Z6">
+        <v>1.282694336928078</v>
       </c>
       <c r="AA6">
-        <v>0.9995399241215964</v>
-      </c>
-      <c r="AB6">
-        <v>1.669414314877273</v>
+        <v>0.4529940527870568</v>
       </c>
       <c r="AC6">
-        <v>1.083459120787553</v>
+        <v>0.8585221199461128</v>
       </c>
       <c r="AD6">
-        <v>1.302846943381406</v>
+        <v>1.04346807030265</v>
       </c>
       <c r="AE6">
-        <v>0.8532551035831039</v>
+        <v>1.141666273801002</v>
+      </c>
+      <c r="AF6">
+        <v>0.9042910932318535</v>
       </c>
       <c r="AG6">
-        <v>0.9935465415915119</v>
+        <v>0.6836983656500268</v>
       </c>
       <c r="AH6">
-        <v>1.106972637778183</v>
+        <v>1.006072936399915</v>
+      </c>
+      <c r="AI6">
+        <v>1.414302799813417</v>
       </c>
       <c r="AJ6">
-        <v>0.9467001584970987</v>
+        <v>1.339428623746525</v>
       </c>
       <c r="AK6">
-        <v>1.71890796869851</v>
+        <v>0.9517923875116245</v>
+      </c>
+      <c r="AL6">
+        <v>1.011753685236696</v>
       </c>
       <c r="AM6">
-        <v>1.285827458311681</v>
+        <v>1.350189464538086</v>
       </c>
       <c r="AN6">
-        <v>1.007674469717062</v>
+        <v>0.7206841820993737</v>
       </c>
       <c r="AO6">
-        <v>1.481887883681203</v>
+        <v>1.038248660674884</v>
       </c>
       <c r="AP6">
-        <v>1.2608716975737</v>
+        <v>0.9641796133476789</v>
       </c>
       <c r="AQ6">
-        <v>1.037461554558406</v>
+        <v>1.49460816502386</v>
       </c>
       <c r="AR6">
-        <v>0.5815520623346936</v>
+        <v>1.417778048536811</v>
+      </c>
+      <c r="AS6">
+        <v>1.431988276530799</v>
+      </c>
+      <c r="AT6">
+        <v>0.9243544263909257</v>
+      </c>
+      <c r="AU6">
+        <v>4.882519196387748</v>
       </c>
       <c r="AV6">
-        <v>1.313962030646215</v>
+        <v>1.4589550603592</v>
       </c>
       <c r="AW6">
-        <v>0.8872006901642461</v>
+        <v>0.8280567864977705</v>
       </c>
       <c r="AX6">
-        <v>1.352136994083639</v>
+        <v>2.541613038062251</v>
+      </c>
+      <c r="AY6">
+        <v>0.7685584133965105</v>
+      </c>
+      <c r="AZ6">
+        <v>1.316932815771629</v>
       </c>
       <c r="BA6">
-        <v>1.114439582620492</v>
+        <v>0.2524090150684054</v>
       </c>
       <c r="BB6">
-        <v>0.8901848464531273</v>
+        <v>1.743416376874029</v>
+      </c>
+      <c r="BC6">
+        <v>0.7679220947166028</v>
       </c>
       <c r="BD6">
-        <v>0.9639318119951922</v>
+        <v>2.531904500165319</v>
       </c>
       <c r="BE6">
-        <v>1.059557722188031</v>
+        <v>1.26002078764518</v>
       </c>
       <c r="BF6">
-        <v>0.9145778038645637</v>
+        <v>1.537009797321361</v>
       </c>
       <c r="BG6">
-        <v>0.934836181369186</v>
+        <v>1.510753263215495</v>
+      </c>
+      <c r="BH6">
+        <v>1.137143782804266</v>
       </c>
       <c r="BI6">
-        <v>1.552357742963089</v>
+        <v>0.7634928496272874</v>
       </c>
       <c r="BJ6">
-        <v>1.013006373635981</v>
+        <v>0.9775692132642964</v>
+      </c>
+      <c r="BK6">
+        <v>0.868722171815844</v>
       </c>
       <c r="BL6">
-        <v>1.04615890454201</v>
+        <v>1.182642890168951</v>
+      </c>
+      <c r="BM6">
+        <v>0.8494449019235828</v>
+      </c>
+      <c r="BN6">
+        <v>1.040427355103041</v>
       </c>
       <c r="BO6">
-        <v>1.136944938675122</v>
+        <v>1.06652321387425</v>
+      </c>
+      <c r="BP6">
+        <v>0.8936820004936723</v>
+      </c>
+      <c r="BQ6">
+        <v>0.7367376403666773</v>
       </c>
       <c r="BR6">
-        <v>1.906997299404793</v>
+        <v>0.968978514023583</v>
       </c>
       <c r="BS6">
-        <v>6.676844004969979</v>
+        <v>5.923434868831404</v>
+      </c>
+      <c r="BT6">
+        <v>1.092972519124793</v>
       </c>
       <c r="BU6">
-        <v>5.163728951432071</v>
+        <v>0.9280030461909705</v>
       </c>
       <c r="BV6">
-        <v>1.732532962148056</v>
+        <v>1.337632712442262</v>
+      </c>
+      <c r="BW6">
+        <v>0.9836842814673808</v>
       </c>
       <c r="BX6">
-        <v>0.9104158443233378</v>
+        <v>2.056665806522943</v>
       </c>
       <c r="BY6">
-        <v>0.4995507111119689</v>
+        <v>1.351395208755301</v>
+      </c>
+      <c r="BZ6">
+        <v>0.9699381084401087</v>
       </c>
       <c r="CA6">
-        <v>1.319906069935977</v>
+        <v>0.8919085559892491</v>
+      </c>
+      <c r="CB6">
+        <v>0.7300399234013403</v>
       </c>
       <c r="CC6">
-        <v>1.141360808238028</v>
+        <v>1.494259677526284</v>
       </c>
       <c r="CD6">
-        <v>0.8723682232842318</v>
+        <v>7.373405945542626</v>
       </c>
       <c r="CE6">
-        <v>1.091031072863275</v>
+        <v>1.27231377948003</v>
       </c>
       <c r="CF6">
-        <v>1.404455371085107</v>
+        <v>12.85626303761873</v>
+      </c>
+      <c r="CG6">
+        <v>1.09399395466133</v>
       </c>
       <c r="CH6">
-        <v>1.989838106758142</v>
+        <v>1.072042680156584</v>
       </c>
       <c r="CI6">
-        <v>0.820064013799201</v>
+        <v>1.133245993528586</v>
       </c>
       <c r="CJ6">
-        <v>1.11016909175465</v>
+        <v>1.495744107373054</v>
       </c>
       <c r="CK6">
-        <v>0.7907220097351912</v>
+        <v>1.175081979436333</v>
       </c>
       <c r="CL6">
-        <v>0.7564615853379046</v>
+        <v>1.712062279937223</v>
       </c>
       <c r="CM6">
-        <v>1.087469347663856</v>
+        <v>1.376867709196333</v>
       </c>
       <c r="CN6">
-        <v>1.091727976847902</v>
+        <v>0.7886687853412371</v>
+      </c>
+      <c r="CO6">
+        <v>0.9187191722948029</v>
       </c>
       <c r="CP6">
-        <v>0.9242646386342456</v>
+        <v>0.9841769954928737</v>
       </c>
       <c r="CQ6">
-        <v>6.21124154599895</v>
+        <v>0.9480391544156446</v>
+      </c>
+      <c r="CR6">
+        <v>1.183785640325054</v>
       </c>
       <c r="CS6">
-        <v>1.148499722799026</v>
+        <v>1.376172516600265</v>
       </c>
       <c r="CT6">
-        <v>0.8223128556917257</v>
+        <v>1.10603355513795</v>
+      </c>
+      <c r="CU6">
+        <v>2.079901477834411</v>
+      </c>
+      <c r="CV6">
+        <v>1.001004832372931</v>
+      </c>
+      <c r="CW6">
+        <v>0.6736417628055401</v>
       </c>
     </row>
     <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
+        <v>2.555492296804698</v>
+      </c>
+      <c r="D7">
+        <v>1.659997803150808</v>
+      </c>
+      <c r="E7">
         <v>1.343096438217769</v>
       </c>
-      <c r="C7">
+      <c r="F7">
+        <v>2.500743796131497</v>
+      </c>
+      <c r="H7">
+        <v>1.809912629266216</v>
+      </c>
+      <c r="J7">
         <v>1.056490119004728</v>
       </c>
-      <c r="D7">
-        <v>1.279819126914547</v>
-      </c>
-      <c r="F7">
+      <c r="K7">
         <v>1.64352116235116</v>
       </c>
-      <c r="G7">
-        <v>1.190785640663143</v>
-      </c>
-      <c r="H7">
+      <c r="L7">
+        <v>2.832962596647425</v>
+      </c>
+      <c r="M7">
+        <v>1.635731679038693</v>
+      </c>
+      <c r="N7">
         <v>1.243989200820209</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>0.9892284867376754</v>
       </c>
-      <c r="L7">
-        <v>1.282984200486581</v>
-      </c>
-      <c r="N7">
-        <v>1.195055788700202</v>
-      </c>
-      <c r="R7">
-        <v>1.644497838940604</v>
+      <c r="P7">
+        <v>2.529175777022556</v>
+      </c>
+      <c r="Q7">
+        <v>1.1960849425132</v>
       </c>
       <c r="T7">
-        <v>2.164668208761774</v>
+        <v>0.9406316722219876</v>
+      </c>
+      <c r="U7">
+        <v>0.706204648579157</v>
       </c>
       <c r="V7">
-        <v>1.782645529074832</v>
-      </c>
-      <c r="X7">
-        <v>1.809912629266216</v>
+        <v>1.25077060635637</v>
+      </c>
+      <c r="W7">
+        <v>1.18785302367832</v>
       </c>
       <c r="Y7">
-        <v>1.722294829274989</v>
+        <v>1.629379299244733</v>
       </c>
       <c r="Z7">
-        <v>1.187138741185325</v>
+        <v>1.665749760940537</v>
       </c>
       <c r="AA7">
-        <v>0.8895626091106142</v>
+        <v>1.120541832943366</v>
       </c>
       <c r="AC7">
-        <v>1.23989709124104</v>
-      </c>
-      <c r="AD7">
-        <v>1.229056106080199</v>
+        <v>0.9280851273568662</v>
       </c>
       <c r="AE7">
-        <v>0.7943008395121546</v>
+        <v>1.061382762755378</v>
+      </c>
+      <c r="AF7">
+        <v>0.9171660515506451</v>
+      </c>
+      <c r="AG7">
+        <v>0.77885698605222</v>
       </c>
       <c r="AH7">
-        <v>1.067128708255386</v>
+        <v>0.8843231191940564</v>
       </c>
       <c r="AI7">
-        <v>1.50264219541061</v>
+        <v>1.657547386875032</v>
       </c>
       <c r="AJ7">
-        <v>1.030257079152856</v>
+        <v>1.174927743872135</v>
       </c>
       <c r="AK7">
-        <v>1.439319560772035</v>
+        <v>1.055674536594625</v>
       </c>
       <c r="AL7">
-        <v>2.242971074594283</v>
+        <v>1.002011788855916</v>
       </c>
       <c r="AM7">
-        <v>1.191624921613107</v>
+        <v>0.9133589422168397</v>
       </c>
       <c r="AO7">
-        <v>1.265854719630007</v>
+        <v>1.092232756050008</v>
       </c>
       <c r="AP7">
-        <v>1.279218756381605</v>
+        <v>0.9446816836975233</v>
       </c>
       <c r="AQ7">
-        <v>1.023936237343511</v>
+        <v>1.550982700912712</v>
       </c>
       <c r="AR7">
-        <v>1.020030854856399</v>
+        <v>1.398907842131326</v>
+      </c>
+      <c r="AS7">
+        <v>1.34394597213615</v>
       </c>
       <c r="AT7">
-        <v>0.887070020864045</v>
+        <v>1.090951512930303</v>
+      </c>
+      <c r="AU7">
+        <v>4.920852219467779</v>
       </c>
       <c r="AV7">
-        <v>1.314192440599171</v>
+        <v>1.969664298614457</v>
       </c>
       <c r="AW7">
-        <v>0.9423634871620545</v>
+        <v>0.8806783431584583</v>
       </c>
       <c r="AX7">
-        <v>1.130286316202971</v>
+        <v>3.448554865897711</v>
+      </c>
+      <c r="AY7">
+        <v>0.7820727850655381</v>
       </c>
       <c r="AZ7">
-        <v>0.7772261691768817</v>
+        <v>0.9991741855538899</v>
       </c>
       <c r="BA7">
-        <v>0.5732427031808349</v>
+        <v>0.3294335435989332</v>
       </c>
       <c r="BB7">
-        <v>0.9839893347419487</v>
+        <v>1.913493244883366</v>
       </c>
       <c r="BC7">
-        <v>0.9463333559198182</v>
+        <v>0.8083499630262806</v>
+      </c>
+      <c r="BD7">
+        <v>1.058680067711162</v>
       </c>
       <c r="BE7">
-        <v>1.043125643759748</v>
+        <v>0.7808418806299247</v>
       </c>
       <c r="BF7">
-        <v>0.96954063864108</v>
+        <v>1.419866884658036</v>
       </c>
       <c r="BG7">
-        <v>0.9922450157602001</v>
+        <v>1.867323270653965</v>
+      </c>
+      <c r="BH7">
+        <v>0.8814803358650005</v>
       </c>
       <c r="BI7">
-        <v>1.381935172869534</v>
+        <v>0.6664844941527541</v>
       </c>
       <c r="BJ7">
-        <v>1.029761999299422</v>
+        <v>0.9462546771513319</v>
+      </c>
+      <c r="BK7">
+        <v>0.9902054938325761</v>
       </c>
       <c r="BL7">
-        <v>1.090481981207755</v>
+        <v>1.327207160958098</v>
       </c>
       <c r="BM7">
-        <v>1.136541384014234</v>
+        <v>0.9286286647493086</v>
+      </c>
+      <c r="BN7">
+        <v>1.133453059608161</v>
+      </c>
+      <c r="BO7">
+        <v>1.21211029373851</v>
+      </c>
+      <c r="BP7">
+        <v>1.006975278448691</v>
+      </c>
+      <c r="BQ7">
+        <v>0.822660983864174</v>
       </c>
       <c r="BR7">
-        <v>1.695410595754324</v>
+        <v>0.7713792107885564</v>
       </c>
       <c r="BS7">
-        <v>6.4252328526882</v>
+        <v>1.61359562383905</v>
       </c>
       <c r="BT7">
-        <v>0.6997224616567381</v>
+        <v>1.15919046829651</v>
       </c>
       <c r="BU7">
-        <v>1.719943677313392</v>
+        <v>0.9024100891324971</v>
       </c>
       <c r="BV7">
-        <v>1.628873004730307</v>
+        <v>1.373018755378135</v>
       </c>
       <c r="BW7">
-        <v>1.010133223759049</v>
+        <v>1.006740564799409</v>
       </c>
       <c r="BX7">
-        <v>0.8817331985997139</v>
-      </c>
-      <c r="CA7">
-        <v>1.640064088715595</v>
+        <v>1.726539341119998</v>
+      </c>
+      <c r="BY7">
+        <v>2.64554508855088</v>
+      </c>
+      <c r="BZ7">
+        <v>0.9317483796476334</v>
       </c>
       <c r="CB7">
-        <v>1.240627079742654</v>
+        <v>1.417534188764136</v>
       </c>
       <c r="CC7">
-        <v>1.254543574234138</v>
+        <v>1.297021565369598</v>
       </c>
       <c r="CD7">
-        <v>0.9532179255220756</v>
+        <v>2.855782472301368</v>
       </c>
       <c r="CE7">
-        <v>0.9448121079535131</v>
+        <v>1.235308422750194</v>
       </c>
       <c r="CF7">
-        <v>1.243984260617633</v>
+        <v>12.16812860568847</v>
       </c>
       <c r="CG7">
-        <v>1.372563135641434</v>
+        <v>1.498274964587542</v>
       </c>
       <c r="CH7">
-        <v>2.339150294387438</v>
-      </c>
-      <c r="CJ7">
-        <v>1.085695346194197</v>
+        <v>1.008772564707491</v>
+      </c>
+      <c r="CI7">
+        <v>1.09783843391435</v>
       </c>
       <c r="CK7">
-        <v>1.19089214036261</v>
+        <v>1.196934226938007</v>
+      </c>
+      <c r="CL7">
+        <v>1.567779793905259</v>
       </c>
       <c r="CM7">
-        <v>1.080217943286697</v>
+        <v>1.345642019595023</v>
       </c>
       <c r="CN7">
-        <v>1.029220633642823</v>
+        <v>0.7463580833001106</v>
+      </c>
+      <c r="CO7">
+        <v>0.9755866637356368</v>
       </c>
       <c r="CP7">
-        <v>1.042232364591887</v>
+        <v>1.045172453176318</v>
       </c>
       <c r="CQ7">
-        <v>6.434983693636003</v>
+        <v>0.6914907991878402</v>
+      </c>
+      <c r="CR7">
+        <v>1.392211994803881</v>
       </c>
       <c r="CS7">
-        <v>1.398329113331066</v>
+        <v>1.358344953382361</v>
+      </c>
+      <c r="CT7">
+        <v>1.126962907133745</v>
+      </c>
+      <c r="CU7">
+        <v>2.569988863485632</v>
+      </c>
+      <c r="CV7">
+        <v>0.9616375481744349</v>
       </c>
       <c r="CW7">
-        <v>1.256126832131941</v>
+        <v>0.6423018538347317</v>
       </c>
     </row>
   </sheetData>
